--- a/BackTest/2020-01-20 BackTest WTC.xlsx
+++ b/BackTest/2020-01-20 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,11 +583,17 @@
         <v>21927.59716409471</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>458.1</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +622,17 @@
         <v>21927.59716409471</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>453</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +661,17 @@
         <v>21928.70716409471</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>453</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +700,17 @@
         <v>22328.26383119555</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>454.1</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -719,7 +743,11 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -752,7 +780,11 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -785,7 +817,11 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,7 +854,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +887,17 @@
         <v>21687.85193119555</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>463.5</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +926,17 @@
         <v>21087.85193119555</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>463.5</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +965,17 @@
         <v>23243.85193119555</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>460</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1004,17 @@
         <v>23245.12193119555</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>468.4</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1043,17 @@
         <v>23244.02193119556</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>476</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1086,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1123,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1160,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1197,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1234,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1267,17 @@
         <v>22082.88093119555</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>463.1</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1310,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1347,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1380,17 @@
         <v>22148.72743119556</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>461.6</v>
+      </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1423,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1460,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1497,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1534,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1571,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1604,17 @@
         <v>17227.55193119556</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>466</v>
+      </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1643,17 @@
         <v>17228.65193119556</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>465.2</v>
+      </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1682,17 @@
         <v>17229.75193119555</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>467</v>
+      </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1725,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1762,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1799,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1836,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1873,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1910,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1947,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1984,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +2021,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +2058,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +2095,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +2132,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2169,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2206,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2243,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2280,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2313,17 @@
         <v>28343.00191769344</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>461.9</v>
+      </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2352,17 @@
         <v>27496.90031769344</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>463</v>
+      </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2391,17 @@
         <v>28095.49521769344</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>460</v>
+      </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2430,17 @@
         <v>28285.49521769344</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>465.2</v>
+      </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2473,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2510,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2547,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2584,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2621,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2658,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2695,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2732,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2769,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2802,17 @@
         <v>17117.50631769343</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>454.2</v>
+      </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2841,17 @@
         <v>17117.50631769343</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>463.9</v>
+      </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2880,17 @@
         <v>16909.19831769343</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>463.9</v>
+      </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +2919,17 @@
         <v>16909.19831769343</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>456.5</v>
+      </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +2958,17 @@
         <v>17383.00381769343</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>456.5</v>
+      </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2997,17 @@
         <v>17385.00381769343</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>456.7</v>
+      </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +3036,17 @@
         <v>17337.62331769343</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>463.8</v>
+      </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +3075,17 @@
         <v>3106.557717693433</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>456.8</v>
+      </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +3114,17 @@
         <v>-4453.173182306567</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>456.5</v>
+      </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,11 +3153,17 @@
         <v>-4453.173182306567</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>450.3</v>
+      </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,11 +3192,17 @@
         <v>-4453.173182306567</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>450.3</v>
+      </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2893,11 +3231,17 @@
         <v>9404.859517693432</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>450.3</v>
+      </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +3270,17 @@
         <v>-6971.873682306568</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>450.8</v>
+      </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2959,15 +3309,17 @@
         <v>-1921.821382306568</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>450.3</v>
       </c>
-      <c r="J78" t="n">
-        <v>450.3</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,17 +3348,15 @@
         <v>-1530.261482306568</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>450.4</v>
       </c>
-      <c r="J79" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L79" t="n">
@@ -3037,17 +3387,15 @@
         <v>-1529.171482306568</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>451</v>
       </c>
-      <c r="J80" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L80" t="n">
@@ -3078,17 +3426,15 @@
         <v>170.8285176934319</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>460.8</v>
       </c>
-      <c r="J81" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L81" t="n">
@@ -3119,14 +3465,12 @@
         <v>140.1074176934319</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>460.9</v>
       </c>
-      <c r="J82" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3160,14 +3504,12 @@
         <v>148.5475176934319</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>455.2</v>
       </c>
-      <c r="J83" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3201,12 +3543,12 @@
         <v>40.28551769343187</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>450.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>460.8</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3240,12 +3582,12 @@
         <v>30.28551769343187</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>450.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>460.7</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3279,12 +3621,12 @@
         <v>-746.7144823065681</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>450.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>458.9</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3318,14 +3660,12 @@
         <v>-745.6144823065681</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>455.5</v>
       </c>
-      <c r="J87" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3359,12 +3699,12 @@
         <v>-1624.879282306568</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>450.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>460.8</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3398,12 +3738,12 @@
         <v>-1624.879282306568</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>450.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>459.7</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3437,12 +3777,12 @@
         <v>-1624.879282306568</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>450.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>459.7</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3476,12 +3816,12 @@
         <v>2414.377917693432</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>450.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>459.7</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3515,12 +3855,12 @@
         <v>3316.602417693432</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>450.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>459.9</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3554,12 +3894,12 @@
         <v>2462.066317693431</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>450.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>472.1</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3596,9 +3936,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3635,9 +3973,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3674,9 +4010,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3713,9 +4047,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3752,9 +4084,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3791,9 +4121,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3830,9 +4158,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3866,12 +4192,12 @@
         <v>2232.091917693431</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>450.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>467</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3905,12 +4231,12 @@
         <v>6921.960617693431</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>450.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>466</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3944,12 +4270,12 @@
         <v>6988.198717693431</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>450.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>468.8</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3983,12 +4309,12 @@
         <v>6992.198717693431</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>450.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>469</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4025,9 +4351,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4064,9 +4388,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4103,9 +4425,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4142,9 +4462,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4181,9 +4499,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4220,9 +4536,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4259,9 +4573,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4298,9 +4610,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4337,9 +4647,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4376,9 +4684,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4415,9 +4721,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4454,9 +4758,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4493,9 +4795,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4529,12 +4829,12 @@
         <v>4479.772317693429</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>450.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>462.7</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4571,9 +4871,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4607,12 +4905,12 @@
         <v>8592.650417693429</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>450.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>462.7</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4646,12 +4944,12 @@
         <v>8192.562117693429</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>450.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>470</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4685,12 +4983,12 @@
         <v>8193.66211769343</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>450.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>458.6</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4724,12 +5022,12 @@
         <v>8173.04661769343</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>450.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>466.6</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4763,12 +5061,12 @@
         <v>8174.14661769343</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>450.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>459.2</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4805,9 +5103,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4844,9 +5140,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4883,9 +5177,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4919,12 +5211,12 @@
         <v>8195.271017693431</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>450.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>467.9</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4958,12 +5250,12 @@
         <v>8195.271017693431</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>450.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>467.9</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5000,9 +5292,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5036,12 +5326,12 @@
         <v>7476.337217693431</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>450.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>467.9</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5075,12 +5365,12 @@
         <v>7478.484917693431</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>450.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>459</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5114,12 +5404,12 @@
         <v>6998.549117693431</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>450.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>465</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5153,12 +5443,12 @@
         <v>7028.549117693431</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>450.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>459.5</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5192,12 +5482,12 @@
         <v>7029.649117693431</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>450.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>459.6</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5231,12 +5521,12 @@
         <v>7029.649117693431</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>450.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>464.1</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5270,12 +5560,12 @@
         <v>7029.649117693431</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>450.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>464.1</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5309,12 +5599,12 @@
         <v>6999.649117693431</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>450.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>464.1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5348,12 +5638,12 @@
         <v>6999.649117693431</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>450.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>460.8</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5387,12 +5677,12 @@
         <v>7020.248017693431</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>450.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>460.8</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5426,12 +5716,12 @@
         <v>7041.963517693432</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>450.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>465</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5465,12 +5755,12 @@
         <v>7652.237517693432</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>450.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>466.6</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5504,12 +5794,12 @@
         <v>7640.743317693432</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>450.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>466.7</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5543,12 +5833,12 @@
         <v>7640.743317693432</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>450.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>466.6</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5582,12 +5872,12 @@
         <v>2200.636417693432</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>450.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>466.6</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5621,12 +5911,12 @@
         <v>2219.537917693432</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>450.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>461</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5663,9 +5953,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5702,9 +5990,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5741,9 +6027,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5780,9 +6064,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5819,9 +6101,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5858,9 +6138,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5897,9 +6175,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5933,12 +6209,12 @@
         <v>11203.57761769343</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>450.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>467.9</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5972,12 +6248,12 @@
         <v>11709.51701769343</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>450.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>461.1</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6011,12 +6287,12 @@
         <v>12778.18481769343</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>450.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>464.5</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6050,12 +6326,12 @@
         <v>13808.36321769343</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>450.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>468</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6092,9 +6368,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6131,9 +6405,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6170,9 +6442,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6209,9 +6479,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6248,9 +6516,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6287,9 +6553,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6326,9 +6590,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6365,9 +6627,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6404,9 +6664,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6443,9 +6701,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6482,9 +6738,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6521,9 +6775,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6560,9 +6812,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6599,9 +6849,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6638,9 +6886,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6677,9 +6923,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6716,9 +6960,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6755,9 +6997,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6794,9 +7034,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6833,9 +7071,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6872,9 +7108,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6911,9 +7145,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6950,9 +7182,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6989,9 +7219,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7028,9 +7256,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7067,9 +7293,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7106,9 +7330,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7145,9 +7367,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7184,9 +7404,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7223,9 +7441,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7262,9 +7478,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7301,9 +7515,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7340,9 +7552,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7379,9 +7589,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7418,9 +7626,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7457,9 +7663,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7496,9 +7700,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7535,9 +7737,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7574,9 +7774,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7613,9 +7811,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7652,9 +7848,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7691,9 +7885,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7730,9 +7922,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7769,9 +7959,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7808,9 +7996,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7844,23 +8030,19 @@
         <v>95413.64897687605</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>450.3</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L203" t="n">
-        <v>1.098708638685321</v>
-      </c>
-      <c r="M203" t="n">
-        <v>1.05751721074839</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7889,7 +8071,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7918,11 +8104,15 @@
         <v>98097.94717687606</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7955,7 +8145,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7988,7 +8182,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8021,7 +8219,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8054,7 +8256,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8087,7 +8293,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8116,11 +8326,15 @@
         <v>105142.735176876</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8149,11 +8363,15 @@
         <v>120994.359776876</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8182,11 +8400,15 @@
         <v>133634.9185768761</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8215,11 +8437,15 @@
         <v>129022.5565298499</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8248,11 +8474,15 @@
         <v>129603.2327298499</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8285,7 +8515,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8318,7 +8552,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8351,7 +8589,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8380,11 +8622,15 @@
         <v>117086.4134298499</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8417,7 +8663,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8450,7 +8700,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8483,7 +8737,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8512,11 +8770,15 @@
         <v>118118.8422298499</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8549,7 +8811,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8582,7 +8848,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8615,7 +8885,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8648,7 +8922,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8681,7 +8959,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8714,7 +8996,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8747,7 +9033,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8780,7 +9070,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8813,7 +9107,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8846,7 +9144,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8879,7 +9181,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8908,11 +9214,15 @@
         <v>123486.8959886968</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8945,7 +9255,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8978,7 +9292,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9011,7 +9329,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9044,7 +9366,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9077,7 +9403,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9110,7 +9440,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9143,7 +9477,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9176,7 +9514,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9209,7 +9551,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9242,7 +9588,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9275,7 +9625,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9308,7 +9662,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9341,7 +9699,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9374,7 +9736,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9407,7 +9773,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9440,7 +9810,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9473,7 +9847,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9506,7 +9884,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9539,7 +9921,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9572,7 +9958,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9605,7 +9995,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9638,7 +10032,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9671,7 +10069,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9704,7 +10106,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9737,7 +10143,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9770,7 +10180,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9803,7 +10217,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9836,7 +10254,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9869,7 +10291,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9902,7 +10328,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9935,7 +10365,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9968,7 +10402,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10001,7 +10439,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10034,7 +10476,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10067,7 +10513,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10100,7 +10550,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10133,7 +10587,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10166,7 +10624,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10199,7 +10661,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10232,7 +10698,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10265,7 +10735,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10298,7 +10772,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10331,7 +10809,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10364,7 +10846,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10397,7 +10883,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10430,7 +10920,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10463,7 +10957,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10496,7 +10994,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10529,7 +11031,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10562,7 +11068,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10595,7 +11105,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10628,7 +11142,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10661,7 +11179,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10694,7 +11216,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10727,7 +11253,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10760,7 +11290,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10793,7 +11327,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10826,7 +11364,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10859,7 +11401,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10892,7 +11438,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10925,7 +11475,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10958,7 +11512,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10991,7 +11549,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11024,7 +11586,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11057,7 +11623,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11090,7 +11660,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11123,7 +11697,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11156,7 +11734,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11185,11 +11767,17 @@
         <v>25098.1719583315</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>454</v>
+      </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11218,11 +11806,17 @@
         <v>26852.9427583315</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>453.5</v>
+      </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11251,11 +11845,17 @@
         <v>19529.5831583315</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>458.4</v>
+      </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11284,11 +11884,17 @@
         <v>22278.7143583315</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>455</v>
+      </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11317,11 +11923,17 @@
         <v>22277.6217583315</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>469</v>
+      </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11354,7 +11966,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11387,7 +12003,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11420,7 +12040,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11453,7 +12077,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11486,7 +12114,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11519,7 +12151,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11552,7 +12188,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11585,7 +12225,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11618,7 +12262,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11651,7 +12299,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11684,7 +12336,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11717,7 +12373,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11750,7 +12410,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11783,7 +12447,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11816,7 +12484,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11849,7 +12521,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11882,7 +12558,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11911,11 +12591,15 @@
         <v>96099.97523489807</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11948,7 +12632,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11981,7 +12669,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12014,7 +12706,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12047,7 +12743,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12076,11 +12776,15 @@
         <v>106091.8651348981</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12113,7 +12817,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12146,7 +12854,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12175,11 +12887,15 @@
         <v>171864.7044348981</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12208,11 +12924,15 @@
         <v>130482.2323574857</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12241,11 +12961,15 @@
         <v>116488.7044574857</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12278,7 +13002,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12311,7 +13039,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12340,11 +13072,15 @@
         <v>170470.7739375625</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12373,11 +13109,15 @@
         <v>189589.6497375625</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12410,7 +13150,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12443,7 +13187,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12472,11 +13220,15 @@
         <v>151765.7753375625</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12505,11 +13257,15 @@
         <v>70829.08283756251</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12542,7 +13298,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12571,11 +13331,15 @@
         <v>60035.1926375625</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12608,7 +13372,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12641,7 +13409,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12674,7 +13446,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12707,7 +13483,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12740,7 +13520,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12773,7 +13557,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12806,7 +13594,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12839,7 +13631,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12872,7 +13668,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12905,7 +13705,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12938,7 +13742,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12971,7 +13779,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13004,7 +13816,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13037,7 +13853,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13070,7 +13890,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13103,7 +13927,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13136,7 +13964,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13169,7 +14001,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13202,7 +14038,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13231,14 +14071,16 @@
         <v>206946.2677260942</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
-      <c r="L366" t="n">
-        <v>1</v>
-      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L366" t="inlineStr"/>
       <c r="M366" t="inlineStr"/>
     </row>
     <row r="367">
@@ -13264,7 +14106,7 @@
         <v>213173.0461273988</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13297,7 +14139,7 @@
         <v>199655.6720273988</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13330,7 +14172,7 @@
         <v>193149.8523415735</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13363,7 +14205,7 @@
         <v>180795.8096415735</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13396,7 +14238,7 @@
         <v>200569.4657758344</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13429,7 +14271,7 @@
         <v>194868.2247758344</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13462,7 +14304,7 @@
         <v>196842.0434758344</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13495,7 +14337,7 @@
         <v>196842.0434758344</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13528,7 +14370,7 @@
         <v>203664.5150822471</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13561,7 +14403,7 @@
         <v>198517.3521822471</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13594,7 +14436,7 @@
         <v>202836.8549822471</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13627,7 +14469,7 @@
         <v>188282.0182822471</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13660,7 +14502,7 @@
         <v>178716.8489822471</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13693,7 +14535,7 @@
         <v>170725.6140822471</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13726,7 +14568,7 @@
         <v>174531.9711822471</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13759,7 +14601,7 @@
         <v>174465.2113822471</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13792,7 +14634,7 @@
         <v>175602.1443822471</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13825,7 +14667,7 @@
         <v>144155.7957822471</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13858,7 +14700,7 @@
         <v>136524.1094822471</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13891,7 +14733,7 @@
         <v>136524.1094822471</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13924,7 +14766,7 @@
         <v>130513.2788822471</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13957,7 +14799,7 @@
         <v>132328.3047822471</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13990,7 +14832,7 @@
         <v>132329.4047822471</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14023,7 +14865,7 @@
         <v>132195.4955822471</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14056,7 +14898,7 @@
         <v>132961.1939822471</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14089,7 +14931,7 @@
         <v>132961.1939822471</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14122,7 +14964,7 @@
         <v>132254.3601822471</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14155,7 +14997,7 @@
         <v>133510.7824822471</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14188,7 +15030,7 @@
         <v>131276.5415822471</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14221,7 +15063,7 @@
         <v>131448.2745822471</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14254,7 +15096,7 @@
         <v>131448.2745822471</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14287,7 +15129,7 @@
         <v>131448.2745822471</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14320,7 +15162,7 @@
         <v>141092.2139822471</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14353,7 +15195,7 @@
         <v>141092.2139822471</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14386,7 +15228,7 @@
         <v>141146.2124822471</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14419,7 +15261,7 @@
         <v>141140.3374822471</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14452,7 +15294,7 @@
         <v>141140.3374822471</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14485,7 +15327,7 @@
         <v>143578.5115822471</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14518,7 +15360,7 @@
         <v>141856.0164822471</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14551,7 +15393,7 @@
         <v>141858.0164822471</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14584,7 +15426,7 @@
         <v>138365.4983822471</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14617,7 +15459,7 @@
         <v>139069.3624822471</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14650,7 +15492,7 @@
         <v>142583.1453822471</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14661,6 +15503,6 @@
       <c r="M409" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest WTC.xlsx
+++ b/BackTest/2020-01-20 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,17 +583,11 @@
         <v>21927.59716409471</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>458.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -622,17 +616,11 @@
         <v>21927.59716409471</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>453</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -661,17 +649,11 @@
         <v>21928.70716409471</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>453</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -700,17 +682,11 @@
         <v>22328.26383119555</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>454.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -743,11 +719,7 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -780,11 +752,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -817,11 +785,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -854,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -887,17 +847,11 @@
         <v>21687.85193119555</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>463.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -926,17 +880,11 @@
         <v>21087.85193119555</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>463.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -965,17 +913,11 @@
         <v>23243.85193119555</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>460</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1004,17 +946,11 @@
         <v>23245.12193119555</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>468.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1043,17 +979,11 @@
         <v>23244.02193119556</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>476</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1086,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1123,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1160,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1197,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1234,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1267,17 +1177,11 @@
         <v>22082.88093119555</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>463.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1310,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1347,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1380,17 +1276,11 @@
         <v>22148.72743119556</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>461.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1423,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1460,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1497,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1534,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1571,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1604,17 +1474,11 @@
         <v>17227.55193119556</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>466</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1643,17 +1507,11 @@
         <v>17228.65193119556</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>465.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1682,17 +1540,11 @@
         <v>17229.75193119555</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1725,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1762,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1799,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1836,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1873,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1910,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1947,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1984,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2021,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2058,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2095,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2132,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2169,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2206,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2243,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2280,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2313,17 +2101,11 @@
         <v>28343.00191769344</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>461.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2352,17 +2134,11 @@
         <v>27496.90031769344</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>463</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2391,17 +2167,11 @@
         <v>28095.49521769344</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>460</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2430,17 +2200,11 @@
         <v>28285.49521769344</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>465.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2473,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2510,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2547,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2584,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2621,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2658,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2732,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2769,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2802,17 +2530,11 @@
         <v>17117.50631769343</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>454.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2841,17 +2563,11 @@
         <v>17117.50631769343</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>463.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2880,17 +2596,11 @@
         <v>16909.19831769343</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>463.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2919,17 +2629,11 @@
         <v>16909.19831769343</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>456.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2958,17 +2662,11 @@
         <v>17383.00381769343</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>456.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2997,17 +2695,11 @@
         <v>17385.00381769343</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>456.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3036,17 +2728,11 @@
         <v>17337.62331769343</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>463.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3075,17 +2761,11 @@
         <v>3106.557717693433</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>456.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3114,17 +2794,11 @@
         <v>-4453.173182306567</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>456.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3153,17 +2827,11 @@
         <v>-4453.173182306567</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>450.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3197,12 +2865,10 @@
       <c r="I75" t="n">
         <v>450.3</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="n">
+        <v>450.3</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3236,10 +2902,12 @@
       <c r="I76" t="n">
         <v>450.3</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -3275,10 +2943,12 @@
       <c r="I77" t="n">
         <v>450.8</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -3314,7 +2984,9 @@
       <c r="I78" t="n">
         <v>450.3</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3353,7 +3025,9 @@
       <c r="I79" t="n">
         <v>450.4</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3392,7 +3066,9 @@
       <c r="I80" t="n">
         <v>451</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3431,7 +3107,9 @@
       <c r="I81" t="n">
         <v>460.8</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3465,12 +3143,12 @@
         <v>140.1074176934319</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>460.9</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3509,7 +3187,9 @@
       <c r="I83" t="n">
         <v>455.2</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3543,12 +3223,12 @@
         <v>40.28551769343187</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>460.8</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3582,12 +3262,12 @@
         <v>30.28551769343187</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>460.7</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3621,12 +3301,12 @@
         <v>-746.7144823065681</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>458.9</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3665,7 +3345,9 @@
       <c r="I87" t="n">
         <v>455.5</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3699,12 +3381,12 @@
         <v>-1624.879282306568</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>460.8</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3738,12 +3420,12 @@
         <v>-1624.879282306568</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>459.7</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3777,12 +3459,12 @@
         <v>-1624.879282306568</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>459.7</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3816,12 +3498,12 @@
         <v>2414.377917693432</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>459.7</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3855,12 +3537,12 @@
         <v>3316.602417693432</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>459.9</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3894,12 +3576,12 @@
         <v>2462.066317693431</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>472.1</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3936,7 +3618,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3973,7 +3657,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4010,7 +3696,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4047,7 +3735,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4084,7 +3774,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4121,7 +3813,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4158,7 +3852,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4192,12 +3888,12 @@
         <v>2232.091917693431</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>467</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4231,12 +3927,12 @@
         <v>6921.960617693431</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>466</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4270,12 +3966,12 @@
         <v>6988.198717693431</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>468.8</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4309,12 +4005,12 @@
         <v>6992.198717693431</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>469</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4351,7 +4047,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4388,7 +4086,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4425,7 +4125,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4462,7 +4164,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4499,7 +4203,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4536,7 +4242,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4573,7 +4281,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4610,7 +4320,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4647,7 +4359,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4684,7 +4398,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4721,7 +4437,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4758,7 +4476,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4795,7 +4515,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4829,12 +4551,12 @@
         <v>4479.772317693429</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>462.7</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4871,7 +4593,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4905,12 +4629,12 @@
         <v>8592.650417693429</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>462.7</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4944,12 +4668,12 @@
         <v>8192.562117693429</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>470</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4983,12 +4707,12 @@
         <v>8193.66211769343</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>458.6</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5022,12 +4746,12 @@
         <v>8173.04661769343</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>466.6</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5061,12 +4785,12 @@
         <v>8174.14661769343</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>459.2</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5103,7 +4827,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5140,7 +4866,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5177,7 +4905,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5211,12 +4941,12 @@
         <v>8195.271017693431</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>467.9</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5250,12 +4980,12 @@
         <v>8195.271017693431</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>467.9</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5292,7 +5022,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5326,12 +5058,12 @@
         <v>7476.337217693431</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>467.9</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5365,12 +5097,12 @@
         <v>7478.484917693431</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>459</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5404,12 +5136,12 @@
         <v>6998.549117693431</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>465</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5443,12 +5175,12 @@
         <v>7028.549117693431</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>459.5</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5482,12 +5214,12 @@
         <v>7029.649117693431</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>459.6</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5521,12 +5253,12 @@
         <v>7029.649117693431</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>464.1</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5560,12 +5292,12 @@
         <v>7029.649117693431</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>464.1</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5599,12 +5331,12 @@
         <v>6999.649117693431</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>464.1</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5638,12 +5370,12 @@
         <v>6999.649117693431</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>460.8</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5677,12 +5409,12 @@
         <v>7020.248017693431</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>460.8</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5716,12 +5448,12 @@
         <v>7041.963517693432</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>465</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5755,12 +5487,12 @@
         <v>7652.237517693432</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>466.6</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5794,12 +5526,12 @@
         <v>7640.743317693432</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>466.7</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5833,12 +5565,12 @@
         <v>7640.743317693432</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>466.6</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5872,12 +5604,12 @@
         <v>2200.636417693432</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>466.6</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5916,7 +5648,9 @@
       <c r="I146" t="n">
         <v>461</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5950,10 +5684,14 @@
         <v>9775.534817693431</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>464</v>
+      </c>
+      <c r="J147" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5987,10 +5725,14 @@
         <v>15250.89651769343</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>468</v>
+      </c>
+      <c r="J148" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6027,7 +5769,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6064,7 +5808,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6101,7 +5847,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6138,7 +5886,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6175,7 +5925,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6209,12 +5961,12 @@
         <v>11203.57761769343</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>467.9</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6248,12 +6000,12 @@
         <v>11709.51701769343</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>461.1</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6292,7 +6044,9 @@
       <c r="I156" t="n">
         <v>464.5</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6326,12 +6080,12 @@
         <v>13808.36321769343</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>468</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6368,7 +6122,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6405,7 +6161,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6442,7 +6200,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6479,7 +6239,9 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6516,7 +6278,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6553,7 +6317,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6590,7 +6356,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6627,7 +6395,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6664,7 +6434,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6701,7 +6473,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6738,7 +6512,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6775,7 +6551,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6812,7 +6590,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6849,7 +6629,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6886,7 +6668,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6923,7 +6707,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6960,7 +6746,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6997,7 +6785,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7034,7 +6824,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7071,7 +6863,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7108,7 +6902,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7145,7 +6941,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7182,7 +6980,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7219,7 +7019,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7256,7 +7058,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7293,7 +7097,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7330,7 +7136,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7367,7 +7175,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7404,7 +7214,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7441,7 +7253,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7478,7 +7292,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7515,7 +7331,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7552,7 +7370,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7589,7 +7409,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7626,7 +7448,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7663,7 +7487,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7700,7 +7526,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7737,7 +7565,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7774,7 +7604,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7811,7 +7643,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7848,7 +7682,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7885,7 +7721,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7922,7 +7760,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7959,7 +7799,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7996,7 +7838,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8033,7 +7877,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8070,7 +7916,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8107,7 +7955,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8144,7 +7994,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8181,7 +8033,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8218,7 +8072,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8255,7 +8111,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8292,7 +8150,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8329,7 +8189,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8366,7 +8228,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8403,7 +8267,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8440,7 +8306,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8477,7 +8345,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8514,7 +8384,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8551,7 +8423,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8588,7 +8462,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8625,7 +8501,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8662,7 +8540,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8699,7 +8579,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8736,7 +8618,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8773,7 +8657,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8810,7 +8696,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8847,7 +8735,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8884,7 +8774,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8921,7 +8813,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8958,7 +8852,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8995,7 +8891,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9032,7 +8930,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9069,7 +8969,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9106,7 +9008,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9143,7 +9047,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9180,7 +9086,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9217,7 +9125,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9254,7 +9164,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9291,7 +9203,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9328,7 +9242,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9365,7 +9281,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9402,7 +9320,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9439,7 +9359,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9476,7 +9398,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9513,7 +9437,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9550,7 +9476,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9587,7 +9515,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9624,7 +9554,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9661,7 +9593,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9698,7 +9632,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9735,7 +9671,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9772,7 +9710,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9809,7 +9749,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9846,7 +9788,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9883,7 +9827,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9920,7 +9866,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9957,7 +9905,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9994,7 +9944,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10031,7 +9983,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10068,7 +10022,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10105,7 +10061,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10142,7 +10100,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10179,7 +10139,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10216,7 +10178,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10253,7 +10217,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10290,7 +10256,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10327,7 +10295,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10364,7 +10334,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10401,7 +10373,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10438,7 +10412,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10475,7 +10451,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10512,7 +10490,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10549,7 +10529,9 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10586,7 +10568,9 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10623,7 +10607,9 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10660,7 +10646,9 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10697,7 +10685,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10734,7 +10724,9 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10771,7 +10763,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10808,7 +10802,9 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10845,7 +10841,9 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10882,7 +10880,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10919,7 +10919,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10956,7 +10958,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10993,7 +10997,9 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11030,7 +11036,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11067,7 +11075,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11104,7 +11114,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11141,7 +11153,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11178,7 +11192,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11215,7 +11231,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11252,7 +11270,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11289,7 +11309,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11326,7 +11348,9 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11363,7 +11387,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11400,7 +11426,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11437,7 +11465,9 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11474,7 +11504,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11511,7 +11543,9 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11548,7 +11582,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11585,7 +11621,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11622,7 +11660,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11659,7 +11699,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11696,7 +11738,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11733,7 +11777,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11767,12 +11813,12 @@
         <v>25098.1719583315</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>454</v>
-      </c>
-      <c r="J304" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11806,12 +11852,12 @@
         <v>26852.9427583315</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>453.5</v>
-      </c>
-      <c r="J305" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11845,12 +11891,12 @@
         <v>19529.5831583315</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>458.4</v>
-      </c>
-      <c r="J306" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11884,12 +11930,12 @@
         <v>22278.7143583315</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>455</v>
-      </c>
-      <c r="J307" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11923,12 +11969,12 @@
         <v>22277.6217583315</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>469</v>
-      </c>
-      <c r="J308" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11965,7 +12011,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12002,7 +12050,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12039,7 +12089,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12076,7 +12128,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12113,7 +12167,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12150,7 +12206,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12187,7 +12245,9 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12224,7 +12284,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12261,7 +12323,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12298,7 +12362,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12335,7 +12401,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12372,7 +12440,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12409,7 +12479,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12446,7 +12518,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12483,7 +12557,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12520,7 +12596,9 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12557,7 +12635,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12594,7 +12674,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12631,7 +12713,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12668,7 +12752,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12705,7 +12791,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12742,7 +12830,9 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12779,7 +12869,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12816,7 +12908,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12853,7 +12947,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12890,7 +12986,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12927,7 +13025,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12964,7 +13064,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13001,7 +13103,9 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13038,7 +13142,9 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13075,7 +13181,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13112,7 +13220,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13149,7 +13259,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13186,7 +13298,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13223,7 +13337,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13260,7 +13376,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13297,7 +13415,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13334,7 +13454,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13368,19 +13490,23 @@
         <v>61840.15773756251</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>450.3</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L347" t="n">
-        <v>1</v>
-      </c>
-      <c r="M347" t="inlineStr"/>
+        <v>1.118473240062181</v>
+      </c>
+      <c r="M347" t="n">
+        <v>1.05751721074839</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -13405,15 +13531,11 @@
         <v>90383.43753756251</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13442,15 +13564,11 @@
         <v>94559.16833756251</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13483,11 +13601,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13520,11 +13634,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13557,11 +13667,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13594,11 +13700,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13631,11 +13733,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13664,15 +13762,11 @@
         <v>87670.51468903372</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13701,15 +13795,11 @@
         <v>94067.84120859292</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13738,15 +13828,11 @@
         <v>94067.84120859292</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13775,15 +13861,11 @@
         <v>119282.2451085929</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13816,11 +13898,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13853,11 +13931,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13890,11 +13964,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13927,11 +13997,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13964,11 +14030,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14001,11 +14063,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14038,11 +14096,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14071,16 +14125,14 @@
         <v>206946.2677260942</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
       <c r="M366" t="inlineStr"/>
     </row>
     <row r="367">
@@ -14106,7 +14158,7 @@
         <v>213173.0461273988</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -14139,7 +14191,7 @@
         <v>199655.6720273988</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -14172,7 +14224,7 @@
         <v>193149.8523415735</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -14205,7 +14257,7 @@
         <v>180795.8096415735</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -14238,7 +14290,7 @@
         <v>200569.4657758344</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14271,7 +14323,7 @@
         <v>194868.2247758344</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14304,7 +14356,7 @@
         <v>196842.0434758344</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14337,7 +14389,7 @@
         <v>196842.0434758344</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14370,7 +14422,7 @@
         <v>203664.5150822471</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14403,7 +14455,7 @@
         <v>198517.3521822471</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14436,7 +14488,7 @@
         <v>202836.8549822471</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14469,7 +14521,7 @@
         <v>188282.0182822471</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14502,7 +14554,7 @@
         <v>178716.8489822471</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14535,7 +14587,7 @@
         <v>170725.6140822471</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14568,7 +14620,7 @@
         <v>174531.9711822471</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14601,7 +14653,7 @@
         <v>174465.2113822471</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14634,7 +14686,7 @@
         <v>175602.1443822471</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14667,7 +14719,7 @@
         <v>144155.7957822471</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14700,7 +14752,7 @@
         <v>136524.1094822471</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14733,7 +14785,7 @@
         <v>136524.1094822471</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14766,7 +14818,7 @@
         <v>130513.2788822471</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14799,7 +14851,7 @@
         <v>132328.3047822471</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14832,7 +14884,7 @@
         <v>132329.4047822471</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14865,7 +14917,7 @@
         <v>132195.4955822471</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14898,7 +14950,7 @@
         <v>132961.1939822471</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14931,7 +14983,7 @@
         <v>132961.1939822471</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14964,7 +15016,7 @@
         <v>132254.3601822471</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14997,7 +15049,7 @@
         <v>133510.7824822471</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -15030,7 +15082,7 @@
         <v>131276.5415822471</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -15063,7 +15115,7 @@
         <v>131448.2745822471</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -15096,7 +15148,7 @@
         <v>131448.2745822471</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15129,7 +15181,7 @@
         <v>131448.2745822471</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -15162,7 +15214,7 @@
         <v>141092.2139822471</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -15195,7 +15247,7 @@
         <v>141092.2139822471</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -15228,7 +15280,7 @@
         <v>141146.2124822471</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15261,7 +15313,7 @@
         <v>141140.3374822471</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15294,7 +15346,7 @@
         <v>141140.3374822471</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15327,7 +15379,7 @@
         <v>143578.5115822471</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15360,7 +15412,7 @@
         <v>141856.0164822471</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15393,7 +15445,7 @@
         <v>141858.0164822471</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15426,7 +15478,7 @@
         <v>138365.4983822471</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15459,7 +15511,7 @@
         <v>139069.3624822471</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15492,7 +15544,7 @@
         <v>142583.1453822471</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15503,6 +15555,6 @@
       <c r="M409" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest WTC.xlsx
+++ b/BackTest/2020-01-20 BackTest WTC.xlsx
@@ -2860,14 +2860,10 @@
         <v>-4453.173182306567</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>450.3</v>
-      </c>
-      <c r="J75" t="n">
-        <v>450.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
@@ -2905,11 +2901,7 @@
       <c r="J76" t="n">
         <v>450.3</v>
       </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3143,9 +3135,11 @@
         <v>140.1074176934319</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>460.9</v>
+      </c>
       <c r="J82" t="n">
         <v>450.3</v>
       </c>
@@ -3223,9 +3217,11 @@
         <v>40.28551769343187</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>460.8</v>
+      </c>
       <c r="J84" t="n">
         <v>450.3</v>
       </c>
@@ -3262,9 +3258,11 @@
         <v>30.28551769343187</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>460.7</v>
+      </c>
       <c r="J85" t="n">
         <v>450.3</v>
       </c>
@@ -3301,9 +3299,11 @@
         <v>-746.7144823065681</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>458.9</v>
+      </c>
       <c r="J86" t="n">
         <v>450.3</v>
       </c>
@@ -3381,9 +3381,11 @@
         <v>-1624.879282306568</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>460.8</v>
+      </c>
       <c r="J88" t="n">
         <v>450.3</v>
       </c>
@@ -3420,9 +3422,11 @@
         <v>-1624.879282306568</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>459.7</v>
+      </c>
       <c r="J89" t="n">
         <v>450.3</v>
       </c>
@@ -3459,9 +3463,11 @@
         <v>-1624.879282306568</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>459.7</v>
+      </c>
       <c r="J90" t="n">
         <v>450.3</v>
       </c>
@@ -4707,9 +4713,11 @@
         <v>8193.66211769343</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>458.6</v>
+      </c>
       <c r="J122" t="n">
         <v>450.3</v>
       </c>
@@ -5409,9 +5417,11 @@
         <v>7020.248017693431</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>460.8</v>
+      </c>
       <c r="J140" t="n">
         <v>450.3</v>
       </c>
@@ -5643,11 +5653,9 @@
         <v>2219.537917693432</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>461</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
         <v>450.3</v>
       </c>
@@ -5684,11 +5692,9 @@
         <v>9775.534817693431</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>464</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
         <v>450.3</v>
       </c>
@@ -5725,11 +5731,9 @@
         <v>15250.89651769343</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>468</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
         <v>450.3</v>
       </c>
@@ -6039,11 +6043,9 @@
         <v>12778.18481769343</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>464.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
         <v>450.3</v>
       </c>
@@ -13334,7 +13336,7 @@
         <v>151765.7753375625</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
@@ -13342,13 +13344,15 @@
       </c>
       <c r="K343" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L343" t="n">
-        <v>1</v>
-      </c>
-      <c r="M343" t="inlineStr"/>
+        <v>1.121804352653786</v>
+      </c>
+      <c r="M343" t="n">
+        <v>1.05751721074839</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -13376,14 +13380,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>450.3</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13415,14 +13413,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>450.3</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13454,14 +13446,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>450.3</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13490,23 +13476,15 @@
         <v>61840.15773756251</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>450.3</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
-        <v>1.118473240062181</v>
-      </c>
-      <c r="M347" t="n">
-        <v>1.05751721074839</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -13531,7 +13509,7 @@
         <v>90383.43753756251</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13564,7 +13542,7 @@
         <v>94559.16833756251</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13762,7 +13740,7 @@
         <v>87670.51468903372</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13795,7 +13773,7 @@
         <v>94067.84120859292</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13828,7 +13806,7 @@
         <v>94067.84120859292</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13861,7 +13839,7 @@
         <v>119282.2451085929</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -14059,7 +14037,7 @@
         <v>253182.3290994941</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -14092,7 +14070,7 @@
         <v>223468.25546092</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -14125,7 +14103,7 @@
         <v>206946.2677260942</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -14158,7 +14136,7 @@
         <v>213173.0461273988</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -14191,7 +14169,7 @@
         <v>199655.6720273988</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -14224,7 +14202,7 @@
         <v>193149.8523415735</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -14257,7 +14235,7 @@
         <v>180795.8096415735</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -14290,7 +14268,7 @@
         <v>200569.4657758344</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14323,7 +14301,7 @@
         <v>194868.2247758344</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14356,7 +14334,7 @@
         <v>196842.0434758344</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14389,7 +14367,7 @@
         <v>196842.0434758344</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14422,7 +14400,7 @@
         <v>203664.5150822471</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14455,7 +14433,7 @@
         <v>198517.3521822471</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14488,7 +14466,7 @@
         <v>202836.8549822471</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14521,7 +14499,7 @@
         <v>188282.0182822471</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14554,7 +14532,7 @@
         <v>178716.8489822471</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14587,7 +14565,7 @@
         <v>170725.6140822471</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14620,7 +14598,7 @@
         <v>174531.9711822471</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14653,7 +14631,7 @@
         <v>174465.2113822471</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14686,7 +14664,7 @@
         <v>175602.1443822471</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14719,7 +14697,7 @@
         <v>144155.7957822471</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14752,7 +14730,7 @@
         <v>136524.1094822471</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14785,7 +14763,7 @@
         <v>136524.1094822471</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14818,7 +14796,7 @@
         <v>130513.2788822471</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14950,7 +14928,7 @@
         <v>132961.1939822471</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
